--- a/biology/Botanique/Schismatoglottis/Schismatoglottis.xlsx
+++ b/biology/Botanique/Schismatoglottis/Schismatoglottis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schismatoglottis est un genre de plantes à fleurs de la famille des Araceae. Les membres du genre sont similaires en apparence et en mode de croissance à ceux du genre Homalomena, mais les deux genres ne sont pas étroitement liés. La principale différence est que les feuilles de Schismatoglottis ne sont pas aromatiques. Schismatoglottis se trouvent principalement dans les régions tropicales de Asie du sud est, Nouvelle Guinée, et Mélanésie. La majorité des espèces sont originaires de l'île de Bornéo.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (12 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (12 juin 2021) :
 Schismatoglottis acutifolia Engl.
 Schismatoglottis adoceta S.Y.Wong
 Schismatoglottis ahmadii A.Hay
@@ -699,10 +713,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre est décrit par les botanistes suisses Heinrich Zollinger et Alexandre Moritzi, en 1846[2].
-Les genres suivants sont synonymes de Schismatoglottis selon GBIF       (12 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre est décrit par les botanistes suisses Heinrich Zollinger et Alexandre Moritzi, en 1846.
+Les genres suivants sont synonymes de Schismatoglottis selon GBIF       (12 juin 2021) :
 Apatemone Schott
 Nebrownia Kuntze</t>
         </is>
